--- a/WorkingHours.xlsx
+++ b/WorkingHours.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\KMF\BatWingProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\KMF\BatWingProject\Drawings\Wing10\BatWing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F13B3B3-457D-448D-B978-A5AF25FB6C88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{772C9ED5-48FC-4299-A870-7E5C6130DEB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="170" windowWidth="25240" windowHeight="13510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>Date</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>13.9.2025</t>
+  </si>
+  <si>
+    <t>15.9.2025</t>
   </si>
 </sst>
 </file>
@@ -364,10 +367,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -477,6 +480,23 @@
         <v>0.95833333333333337</v>
       </c>
     </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.8125</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1.0416666666666666E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/WorkingHours.xlsx
+++ b/WorkingHours.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\KMF\BatWingProject\Drawings\Wing10\BatWing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{772C9ED5-48FC-4299-A870-7E5C6130DEB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{725C9F6A-83B4-4E1C-B617-C77E756F93D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="170" windowWidth="25240" windowHeight="13510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t>Date</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>15.9.2025</t>
+  </si>
+  <si>
+    <t>16.9.2025</t>
   </si>
 </sst>
 </file>
@@ -367,10 +370,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -497,6 +500,23 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.5625</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/WorkingHours.xlsx
+++ b/WorkingHours.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\KMF\BatWingProject\Drawings\Wing10\BatWing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{725C9F6A-83B4-4E1C-B617-C77E756F93D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F1ABCCC-B12E-46D8-9853-C6F6C576ED8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="170" windowWidth="25240" windowHeight="13510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>Date</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>16.9.2025</t>
+  </si>
+  <si>
+    <t>17.9.2025</t>
   </si>
 </sst>
 </file>
@@ -370,10 +373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -517,6 +520,23 @@
         <v>0.5625</v>
       </c>
     </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.96527777777777779</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/WorkingHours.xlsx
+++ b/WorkingHours.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\KMF\BatWingProject\Drawings\Wing10\BatWing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F1ABCCC-B12E-46D8-9853-C6F6C576ED8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DC2A0F3-9107-439D-A1AD-F3763572FCB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="170" windowWidth="25240" windowHeight="13510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>Date</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>17.9.2025</t>
+  </si>
+  <si>
+    <t>18.9.2025</t>
   </si>
 </sst>
 </file>
@@ -373,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
@@ -537,6 +540,23 @@
         <v>0.96527777777777779</v>
       </c>
     </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.88541666666666663</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.90972222222222221</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/WorkingHours.xlsx
+++ b/WorkingHours.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\KMF\BatWingProject\Drawings\Wing10\BatWing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DC2A0F3-9107-439D-A1AD-F3763572FCB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19764319-B925-4318-9248-C08D1E7B7014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="170" windowWidth="25240" windowHeight="13510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>Date</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>18.9.2025</t>
+  </si>
+  <si>
+    <t>20.9.2025</t>
   </si>
 </sst>
 </file>
@@ -376,10 +379,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -557,6 +560,23 @@
         <v>0.90972222222222221</v>
       </c>
     </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.875</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/WorkingHours.xlsx
+++ b/WorkingHours.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\KMF\BatWingProject\Drawings\Wing10\BatWing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19764319-B925-4318-9248-C08D1E7B7014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26788664-F47C-4ED4-98B5-6295B7ED4AD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="170" windowWidth="25240" windowHeight="13510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>Date</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>20.9.2025</t>
+  </si>
+  <si>
+    <t>23.9.2025</t>
   </si>
 </sst>
 </file>
@@ -379,10 +382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -577,6 +580,23 @@
         <v>0.875</v>
       </c>
     </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.82291666666666663</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/WorkingHours.xlsx
+++ b/WorkingHours.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\KMF\BatWingProject\Drawings\Wing10\BatWing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26788664-F47C-4ED4-98B5-6295B7ED4AD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C86D300-9BB7-474A-97CE-3588C92B3FE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="170" windowWidth="25240" windowHeight="13510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -64,6 +64,12 @@
   </si>
   <si>
     <t>23.9.2025</t>
+  </si>
+  <si>
+    <t>24.9.2025</t>
+  </si>
+  <si>
+    <t>25.9.2025</t>
   </si>
 </sst>
 </file>
@@ -382,10 +388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -597,6 +603,28 @@
         <v>0.82291666666666663</v>
       </c>
     </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.52083333333333337</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.78125</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/WorkingHours.xlsx
+++ b/WorkingHours.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\KMF\BatWingProject\Drawings\Wing10\BatWing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C86D300-9BB7-474A-97CE-3588C92B3FE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC6083E-1045-4B9E-8750-426B6740F3D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="170" windowWidth="25240" windowHeight="13510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>Date</t>
   </si>
@@ -70,6 +70,45 @@
   </si>
   <si>
     <t>25.9.2025</t>
+  </si>
+  <si>
+    <t>26.9.2025</t>
+  </si>
+  <si>
+    <t>27.9.2025</t>
+  </si>
+  <si>
+    <t>29.9.2025</t>
+  </si>
+  <si>
+    <t>1.10.2025</t>
+  </si>
+  <si>
+    <t>2.10.2025</t>
+  </si>
+  <si>
+    <t>6.10.2025</t>
+  </si>
+  <si>
+    <t>8.10.2025</t>
+  </si>
+  <si>
+    <t>10.10.2025</t>
+  </si>
+  <si>
+    <t>11.10.2025</t>
+  </si>
+  <si>
+    <t>13.10.2025</t>
+  </si>
+  <si>
+    <t>15.10.2025</t>
+  </si>
+  <si>
+    <t>16.10.2025</t>
+  </si>
+  <si>
+    <t>17.10.2025</t>
   </si>
 </sst>
 </file>
@@ -388,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -625,6 +664,191 @@
         <v>0.78125</v>
       </c>
     </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.82291666666666663</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.50694444444444442</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.5625</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.76041666666666663</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.8125</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.6875</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0.8125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0.5625</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0.8125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0.79166666666666663</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0.5625</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
